--- a/data-raw/references/refs as CSV.xlsx
+++ b/data-raw/references/refs as CSV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Würsig B, Thewissen JGM, Kovacs KM, editors. 2018 Encyclopedia of Marine Mammals. 3rd edn. London: Academic Press.</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>reference.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridgway SH, Harrison RJ, editors. 1989 Handbook of marine mammals. Vol. 4: River dolphins and the larger toothed whales. London: Academic Press. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridgway SH, Harrison RJ, editors. 1994 Handbook of marine mammals. Vol. 5: The first book of dolphins. London: Academic Press. </t>
+  </si>
+  <si>
+    <t>Ridgway SH, Harrison RJ, editors. 1999 Handbook of marine mammals. Vol. 6: The second book of dolphins and the porpoises. London: Academic Press.</t>
   </si>
 </sst>
 </file>
@@ -740,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="V144" sqref="V144"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,6 +1813,30 @@
         <v>130</v>
       </c>
     </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
